--- a/misPython_doc/DisbursementRepaymentJune2025.xlsx.xlsx
+++ b/misPython_doc/DisbursementRepaymentJune2025.xlsx.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Repository\Centralise_Database\misPython_doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eidil\Documents\Disbursement &amp; Repayment (MIS)\Disbursement Repayment 2025\6. June 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCD8939-A0C2-4FA1-B1BE-53CA5A235A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A5053AA2-ECD0-4067-A06D-D16C04AFFD20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{DC78711A-2486-47EB-ACD1-11039689C57E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DC78711A-2486-47EB-ACD1-11039689C57E}"/>
   </bookViews>
   <sheets>
     <sheet name="Disbursement Islamic" sheetId="1" r:id="rId1"/>
@@ -25,20 +25,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Repayment Conventional'!$A$2:$Q$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Repayment Islamic'!$A$2:$Q$1581</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -3221,30 +3208,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A18FB25-1C56-44C1-833A-7CA08DE87819}">
   <dimension ref="A2:Q930"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="3"/>
+    <col min="2" max="2" width="3.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="3"/>
     <col min="10" max="10" width="3" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="41.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="3"/>
+    <col min="11" max="11" width="12.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="41.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -16500,26 +16485,26 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="3.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="1"/>
     <col min="10" max="10" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="39.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="1"/>
+    <col min="11" max="11" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="39.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -37289,26 +37274,26 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="3.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="1"/>
     <col min="10" max="10" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="41.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="1"/>
+    <col min="11" max="11" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="41.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -37662,30 +37647,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A38E54F-A835-4AE1-A55F-BBFE07DD3FD4}">
   <dimension ref="A2:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="3.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="1"/>
     <col min="10" max="10" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="40.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="1"/>
+    <col min="11" max="11" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="40.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -38299,21 +38282,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="8"/>
-    <col min="2" max="2" width="40.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="8"/>
+    <col min="1" max="1" width="8.88671875" style="8"/>
+    <col min="2" max="2" width="40.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>751</v>
       </c>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>741</v>
       </c>
@@ -38322,7 +38305,7 @@
         <v>602633884.15999997</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>742</v>
       </c>
@@ -38331,11 +38314,11 @@
         <v>-321192348.5</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>743</v>
       </c>
@@ -38344,7 +38327,7 @@
         <v>243800.49</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>744</v>
       </c>
@@ -38353,11 +38336,11 @@
         <v>-26872964.629999999</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>745</v>
       </c>
@@ -38366,7 +38349,7 @@
         <v>602877684.64999998</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>746</v>
       </c>
@@ -38375,20 +38358,20 @@
         <v>-348065313.13</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="C12" s="7">
         <f>SUM(C10:C11)</f>
         <v>254812371.51999998</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>740</v>
       </c>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>741</v>
       </c>
@@ -38396,7 +38379,7 @@
         <v>226376917.44999999</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>742</v>
       </c>
@@ -38404,11 +38387,11 @@
         <v>-143854414.61000001</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
         <v>743</v>
       </c>
@@ -38416,7 +38399,7 @@
         <v>279500.84999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>744</v>
       </c>
@@ -38424,11 +38407,11 @@
         <v>-8996727.0999999996</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
         <v>745</v>
       </c>
@@ -38436,7 +38419,7 @@
         <v>226656418.29999998</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
         <v>746</v>
       </c>
@@ -38444,19 +38427,19 @@
         <v>-152851141.71000001</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
       <c r="C23" s="7">
         <v>73805276.589999974</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>747</v>
       </c>
       <c r="C25" s="7"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>741</v>
       </c>
@@ -38464,7 +38447,7 @@
         <v>176226443.91</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
         <v>742</v>
       </c>
@@ -38472,11 +38455,11 @@
         <v>-204084774.02000001</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
         <v>743</v>
       </c>
@@ -38484,7 +38467,7 @@
         <v>397345.88</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>744</v>
       </c>
@@ -38492,11 +38475,11 @@
         <v>-72212282.849999994</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
         <v>745</v>
       </c>
@@ -38504,7 +38487,7 @@
         <v>176623789.78999999</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
         <v>746</v>
       </c>
@@ -38512,19 +38495,19 @@
         <v>-276297056.87</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
       <c r="C34" s="7">
         <v>-99673267.080000013</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
         <v>748</v>
       </c>
       <c r="C36" s="7"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
         <v>741</v>
       </c>
@@ -38532,7 +38515,7 @@
         <v>161463551.73000002</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
         <v>742</v>
       </c>
@@ -38540,11 +38523,11 @@
         <v>-113034308.06999999</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
       <c r="C39" s="7"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
         <v>743</v>
       </c>
@@ -38552,7 +38535,7 @@
         <v>158074713.53999999</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
         <v>744</v>
       </c>
@@ -38560,11 +38543,11 @@
         <v>-159835222.88</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="6"/>
       <c r="C42" s="7"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
         <v>745</v>
       </c>
@@ -38572,7 +38555,7 @@
         <v>319538265.26999998</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>746</v>
       </c>
@@ -38580,19 +38563,19 @@
         <v>-272869530.94999999</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
       <c r="C45" s="7">
         <v>46668734.319999993</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="6" t="s">
         <v>749</v>
       </c>
       <c r="C47" s="7"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
         <v>741</v>
       </c>
@@ -38600,7 +38583,7 @@
         <v>285255905.44999999</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="6" t="s">
         <v>742</v>
       </c>
@@ -38608,11 +38591,11 @@
         <v>-172512094.97</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="6"/>
       <c r="C50" s="7"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="6" t="s">
         <v>743</v>
       </c>
@@ -38620,7 +38603,7 @@
         <v>11000132.550000001</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="6" t="s">
         <v>744</v>
       </c>
@@ -38628,11 +38611,11 @@
         <v>-42175840.869999997</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="6"/>
       <c r="C53" s="7"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="6" t="s">
         <v>745</v>
       </c>
@@ -38640,7 +38623,7 @@
         <v>296256038</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
         <v>746</v>
       </c>
@@ -38648,19 +38631,19 @@
         <v>-214687935.84</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="6"/>
       <c r="C56" s="7">
         <v>81568102.159999996</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="6" t="s">
         <v>750</v>
       </c>
       <c r="C58" s="7"/>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="6" t="s">
         <v>741</v>
       </c>
@@ -38668,7 +38651,7 @@
         <v>204542781.21000001</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="6" t="s">
         <v>742</v>
       </c>
@@ -38676,11 +38659,11 @@
         <v>-435240878.88999999</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="6"/>
       <c r="C61" s="7"/>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="6" t="s">
         <v>743</v>
       </c>
@@ -38688,7 +38671,7 @@
         <v>26284624.309999999</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="6" t="s">
         <v>744</v>
       </c>
@@ -38696,11 +38679,11 @@
         <v>-28385700.460000001</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="6"/>
       <c r="C64" s="7"/>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
         <v>745</v>
       </c>
@@ -38708,7 +38691,7 @@
         <v>230827405.52000001</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
         <v>746</v>
       </c>
@@ -38716,7 +38699,7 @@
         <v>-463626579.34999996</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="6"/>
       <c r="C67" s="7">
         <v>-232799173.82999995</v>
